--- a/Dane/Dane_TSP_48.xlsx
+++ b/Dane/Dane_TSP_48.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korne\Desktop\Studia\semestr 5\IO\projekt 2\solver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emili\Documents\GitHub\Inteligencja-Obliczeniowa\Dane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2742A22E-8DB5-4F2D-8D6D-5C0B8D84C09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DEEEFB-6273-4C4E-A029-BF79B40BA8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2FA8A3EE-EA3E-4819-A1B5-000F2EAF05A3}"/>
+    <workbookView minimized="1" xWindow="5560" yWindow="440" windowWidth="16800" windowHeight="9670" xr2:uid="{2FA8A3EE-EA3E-4819-A1B5-000F2EAF05A3}"/>
   </bookViews>
   <sheets>
     <sheet name="dane" sheetId="1" r:id="rId1"/>
@@ -78,10 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Lp.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>rozw</t>
   </si>
@@ -288,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -315,9 +312,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -637,18 +631,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3B79AD-2274-48D8-9762-E5F82AA05FE6}">
-  <dimension ref="A1:BA50"/>
+  <dimension ref="A1:AW49"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BC2" sqref="BC2"/>
+    <sheetView tabSelected="1" zoomScale="51" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="54" max="54" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>1</v>
       </c>
@@ -793,11 +787,8 @@
       <c r="AW1">
         <v>48</v>
       </c>
-      <c r="AZ1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -945,15 +936,8 @@
       <c r="AW2">
         <v>1184</v>
       </c>
-      <c r="AZ2">
-        <v>10</v>
-      </c>
-      <c r="BA2">
-        <f t="shared" ref="BA2:BA49" si="0">VLOOKUP(AZ2,zakres,INDEX(wiersz,MATCH(AZ3,wiersz))+1,FALSE)</f>
-        <v>444</v>
-      </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1101,15 +1085,8 @@
       <c r="AW3">
         <v>661</v>
       </c>
-      <c r="AZ3">
-        <v>4</v>
-      </c>
-      <c r="BA3">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1257,15 +1234,8 @@
       <c r="AW4">
         <v>810</v>
       </c>
-      <c r="AZ4">
-        <v>26</v>
-      </c>
-      <c r="BA4">
-        <f t="shared" si="0"/>
-        <v>431</v>
-      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1413,15 +1383,8 @@
       <c r="AW5">
         <v>900</v>
       </c>
-      <c r="AZ5">
-        <v>42</v>
-      </c>
-      <c r="BA5">
-        <f t="shared" si="0"/>
-        <v>1164</v>
-      </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1569,15 +1532,8 @@
       <c r="AW6">
         <v>97</v>
       </c>
-      <c r="AZ6">
-        <v>47</v>
-      </c>
-      <c r="BA6">
-        <f t="shared" si="0"/>
-        <v>246</v>
-      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1725,15 +1681,8 @@
       <c r="AW7">
         <v>1654</v>
       </c>
-      <c r="AZ7">
-        <v>20</v>
-      </c>
-      <c r="BA7">
-        <f t="shared" si="0"/>
-        <v>574</v>
-      </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1881,15 +1830,8 @@
       <c r="AW8">
         <v>1545</v>
       </c>
-      <c r="AZ8">
-        <v>31</v>
-      </c>
-      <c r="BA8">
-        <f t="shared" si="0"/>
-        <v>493</v>
-      </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2037,15 +1979,8 @@
       <c r="AW9">
         <v>1359</v>
       </c>
-      <c r="AZ9">
-        <v>8</v>
-      </c>
-      <c r="BA9">
-        <f t="shared" si="0"/>
-        <v>228</v>
-      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2193,15 +2128,8 @@
       <c r="AW10">
         <v>1226</v>
       </c>
-      <c r="AZ10">
-        <v>9</v>
-      </c>
-      <c r="BA10">
-        <f t="shared" si="0"/>
-        <v>147</v>
-      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2349,15 +2277,8 @@
       <c r="AW11">
         <v>606</v>
       </c>
-      <c r="AZ11">
-        <v>1</v>
-      </c>
-      <c r="BA11">
-        <f t="shared" si="0"/>
-        <v>261</v>
-      </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2505,15 +2426,8 @@
       <c r="AW12">
         <v>802</v>
       </c>
-      <c r="AZ12">
-        <v>40</v>
-      </c>
-      <c r="BA12">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2661,15 +2575,8 @@
       <c r="AW13">
         <v>984</v>
       </c>
-      <c r="AZ13">
-        <v>12</v>
-      </c>
-      <c r="BA13">
-        <f t="shared" si="0"/>
-        <v>411</v>
-      </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2817,15 +2724,8 @@
       <c r="AW14">
         <v>581</v>
       </c>
-      <c r="AZ14">
-        <v>13</v>
-      </c>
-      <c r="BA14">
-        <f t="shared" si="0"/>
-        <v>205</v>
-      </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2973,15 +2873,8 @@
       <c r="AW15">
         <v>504</v>
       </c>
-      <c r="AZ15">
-        <v>14</v>
-      </c>
-      <c r="BA15">
-        <f t="shared" si="0"/>
-        <v>192</v>
-      </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3129,15 +3022,8 @@
       <c r="AW16">
         <v>1077</v>
       </c>
-      <c r="AZ16">
-        <v>23</v>
-      </c>
-      <c r="BA16">
-        <f t="shared" si="0"/>
-        <v>159</v>
-      </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3285,15 +3171,8 @@
       <c r="AW17">
         <v>1056</v>
       </c>
-      <c r="AZ17">
-        <v>11</v>
-      </c>
-      <c r="BA17">
-        <f t="shared" si="0"/>
-        <v>787</v>
-      </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3441,15 +3320,8 @@
       <c r="AW18">
         <v>1777</v>
       </c>
-      <c r="AZ18">
-        <v>28</v>
-      </c>
-      <c r="BA18">
-        <f t="shared" si="0"/>
-        <v>207</v>
-      </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3597,15 +3469,8 @@
       <c r="AW19">
         <v>1498</v>
       </c>
-      <c r="AZ19">
-        <v>37</v>
-      </c>
-      <c r="BA19">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3753,15 +3618,8 @@
       <c r="AW20">
         <v>1730</v>
       </c>
-      <c r="AZ20">
-        <v>19</v>
-      </c>
-      <c r="BA20">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3909,15 +3767,8 @@
       <c r="AW21">
         <v>1044</v>
       </c>
-      <c r="AZ21">
-        <v>6</v>
-      </c>
-      <c r="BA21">
-        <f t="shared" si="0"/>
-        <v>1047</v>
-      </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4065,15 +3916,8 @@
       <c r="AW22">
         <v>646</v>
       </c>
-      <c r="AZ22">
-        <v>21</v>
-      </c>
-      <c r="BA22">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4221,15 +4065,8 @@
       <c r="AW23">
         <v>1009</v>
       </c>
-      <c r="AZ23">
-        <v>39</v>
-      </c>
-      <c r="BA23">
-        <f t="shared" si="0"/>
-        <v>169</v>
-      </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4377,15 +4214,8 @@
       <c r="AW24">
         <v>693</v>
       </c>
-      <c r="AZ24">
-        <v>32</v>
-      </c>
-      <c r="BA24">
-        <f t="shared" si="0"/>
-        <v>534</v>
-      </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4533,15 +4363,8 @@
       <c r="AW25">
         <v>519</v>
       </c>
-      <c r="AZ25">
-        <v>24</v>
-      </c>
-      <c r="BA25">
-        <f t="shared" si="0"/>
-        <v>543</v>
-      </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4689,15 +4512,8 @@
       <c r="AW26">
         <v>424</v>
       </c>
-      <c r="AZ26">
-        <v>35</v>
-      </c>
-      <c r="BA26">
-        <f t="shared" si="0"/>
-        <v>146</v>
-      </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4845,15 +4661,8 @@
       <c r="AW27">
         <v>800</v>
       </c>
-      <c r="AZ27">
-        <v>45</v>
-      </c>
-      <c r="BA27">
-        <f t="shared" si="0"/>
-        <v>2481</v>
-      </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5001,15 +4810,8 @@
       <c r="AW28">
         <v>1698</v>
       </c>
-      <c r="AZ28">
-        <v>27</v>
-      </c>
-      <c r="BA28">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5157,15 +4959,8 @@
       <c r="AW29">
         <v>1568</v>
       </c>
-      <c r="AZ29">
-        <v>17</v>
-      </c>
-      <c r="BA29">
-        <f t="shared" si="0"/>
-        <v>139</v>
-      </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5313,15 +5108,8 @@
       <c r="AW30">
         <v>379</v>
       </c>
-      <c r="AZ30">
-        <v>43</v>
-      </c>
-      <c r="BA30">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5469,15 +5257,8 @@
       <c r="AW31">
         <v>1592</v>
       </c>
-      <c r="AZ31">
-        <v>30</v>
-      </c>
-      <c r="BA31">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5625,15 +5406,8 @@
       <c r="AW32">
         <v>1456</v>
       </c>
-      <c r="AZ32">
-        <v>7</v>
-      </c>
-      <c r="BA32">
-        <f t="shared" si="0"/>
-        <v>153</v>
-      </c>
     </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5781,15 +5555,8 @@
       <c r="AW33">
         <v>437</v>
       </c>
-      <c r="AZ33">
-        <v>44</v>
-      </c>
-      <c r="BA33">
-        <f t="shared" si="0"/>
-        <v>344</v>
-      </c>
     </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5937,15 +5704,8 @@
       <c r="AW34">
         <v>1145</v>
       </c>
-      <c r="AZ34">
-        <v>33</v>
-      </c>
-      <c r="BA34">
-        <f t="shared" si="0"/>
-        <v>157</v>
-      </c>
     </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6093,15 +5853,8 @@
       <c r="AW35">
         <v>554</v>
       </c>
-      <c r="AZ35">
-        <v>15</v>
-      </c>
-      <c r="BA35">
-        <f t="shared" si="0"/>
-        <v>176</v>
-      </c>
     </row>
-    <row r="36" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6249,15 +6002,8 @@
       <c r="AW36">
         <v>953</v>
       </c>
-      <c r="AZ36">
-        <v>46</v>
-      </c>
-      <c r="BA36">
-        <f t="shared" si="0"/>
-        <v>286</v>
-      </c>
     </row>
-    <row r="37" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6405,15 +6151,8 @@
       <c r="AW37">
         <v>1457</v>
       </c>
-      <c r="AZ37">
-        <v>36</v>
-      </c>
-      <c r="BA37">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
     </row>
-    <row r="38" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6561,15 +6300,8 @@
       <c r="AW38">
         <v>1718</v>
       </c>
-      <c r="AZ38">
-        <v>18</v>
-      </c>
-      <c r="BA38">
-        <f t="shared" si="0"/>
-        <v>427</v>
-      </c>
     </row>
-    <row r="39" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6717,15 +6449,8 @@
       <c r="AW39">
         <v>1385</v>
       </c>
-      <c r="AZ39">
-        <v>38</v>
-      </c>
-      <c r="BA39">
-        <f t="shared" si="0"/>
-        <v>544</v>
-      </c>
     </row>
-    <row r="40" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6873,15 +6598,8 @@
       <c r="AW40">
         <v>317</v>
       </c>
-      <c r="AZ40">
-        <v>22</v>
-      </c>
-      <c r="BA40">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
     </row>
-    <row r="41" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7029,15 +6747,8 @@
       <c r="AW41">
         <v>1029</v>
       </c>
-      <c r="AZ41">
-        <v>16</v>
-      </c>
-      <c r="BA41">
-        <f t="shared" si="0"/>
-        <v>393</v>
-      </c>
     </row>
-    <row r="42" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7185,15 +6896,8 @@
       <c r="AW42">
         <v>843</v>
       </c>
-      <c r="AZ42">
-        <v>41</v>
-      </c>
-      <c r="BA42">
-        <f t="shared" si="0"/>
-        <v>872</v>
-      </c>
     </row>
-    <row r="43" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7341,15 +7045,8 @@
       <c r="AW43">
         <v>370</v>
       </c>
-      <c r="AZ43">
-        <v>2</v>
-      </c>
-      <c r="BA43">
-        <f t="shared" si="0"/>
-        <v>381</v>
-      </c>
     </row>
-    <row r="44" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7497,15 +7194,8 @@
       <c r="AW44">
         <v>1640</v>
       </c>
-      <c r="AZ44">
-        <v>29</v>
-      </c>
-      <c r="BA44">
-        <f t="shared" si="0"/>
-        <v>474</v>
-      </c>
     </row>
-    <row r="45" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -7653,15 +7343,8 @@
       <c r="AW45">
         <v>1477</v>
       </c>
-      <c r="AZ45">
-        <v>34</v>
-      </c>
-      <c r="BA45">
-        <f t="shared" si="0"/>
-        <v>301</v>
-      </c>
     </row>
-    <row r="46" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -7809,15 +7492,8 @@
       <c r="AW46">
         <v>981</v>
       </c>
-      <c r="AZ46">
-        <v>3</v>
-      </c>
-      <c r="BA46">
-        <f t="shared" si="0"/>
-        <v>480</v>
-      </c>
     </row>
-    <row r="47" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7965,15 +7641,8 @@
       <c r="AW47">
         <v>1242</v>
       </c>
-      <c r="AZ47">
-        <v>25</v>
-      </c>
-      <c r="BA47">
-        <f t="shared" si="0"/>
-        <v>443</v>
-      </c>
     </row>
-    <row r="48" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -8121,15 +7790,8 @@
       <c r="AW48">
         <v>801</v>
       </c>
-      <c r="AZ48">
-        <v>5</v>
-      </c>
-      <c r="BA48">
-        <f t="shared" si="0"/>
-        <v>97</v>
-      </c>
     </row>
-    <row r="49" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -8276,23 +7938,6 @@
       </c>
       <c r="AW49">
         <v>0</v>
-      </c>
-      <c r="AZ49">
-        <v>48</v>
-      </c>
-      <c r="BA49">
-        <f t="shared" si="0"/>
-        <v>606</v>
-      </c>
-    </row>
-    <row r="50" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AZ50">
-        <f>AZ2</f>
-        <v>10</v>
-      </c>
-      <c r="BA50">
-        <f>SUM(BA2:BA49)</f>
-        <v>18724</v>
       </c>
     </row>
   </sheetData>
@@ -8304,115 +7949,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487238E0-FC0B-4547-8AC0-EF1063920398}">
   <dimension ref="A1:AJ79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="31" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="31" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="B2" s="4">
         <v>10870</v>
@@ -8506,7 +8151,7 @@
       </c>
       <c r="AH2" s="3"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B3" s="6">
         <v>42</v>
       </c>
@@ -8598,7 +8243,7 @@
         <v>41</v>
       </c>
       <c r="AG3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AH3" s="10">
         <f>MIN(B2:AE2)</f>
@@ -8610,7 +8255,7 @@
       </c>
       <c r="AJ3" s="1"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B4" s="8">
         <v>24</v>
       </c>
@@ -8702,7 +8347,7 @@
         <v>29</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AH4" s="11">
         <f>MAX(B2:AE2)</f>
@@ -8714,7 +8359,7 @@
       </c>
       <c r="AJ4" s="1"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B5" s="8">
         <v>32</v>
       </c>
@@ -8806,7 +8451,7 @@
         <v>34</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH5" s="11">
         <f>AVERAGE(B2:AE2)</f>
@@ -8814,7 +8459,7 @@
       </c>
       <c r="AJ5" s="1"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B6" s="8">
         <v>21</v>
       </c>
@@ -8907,7 +8552,7 @@
       </c>
       <c r="AJ6" s="1"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B7" s="8">
         <v>13</v>
       </c>
@@ -9000,7 +8645,7 @@
       </c>
       <c r="AJ7" s="1"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B8" s="8">
         <v>47</v>
       </c>
@@ -9093,7 +8738,7 @@
       </c>
       <c r="AJ8" s="1"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B9" s="8">
         <v>20</v>
       </c>
@@ -9186,7 +8831,7 @@
       </c>
       <c r="AJ9" s="1"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B10" s="8">
         <v>33</v>
       </c>
@@ -9279,7 +8924,7 @@
       </c>
       <c r="AJ10" s="1"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B11" s="8">
         <v>46</v>
       </c>
@@ -9372,7 +9017,7 @@
       </c>
       <c r="AJ11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B12" s="8">
         <v>36</v>
       </c>
@@ -9465,7 +9110,7 @@
       </c>
       <c r="AJ12" s="1"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B13" s="8">
         <v>30</v>
       </c>
@@ -9558,7 +9203,7 @@
       </c>
       <c r="AJ13" s="1"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B14" s="8">
         <v>43</v>
       </c>
@@ -9651,7 +9296,7 @@
       </c>
       <c r="AJ14" s="1"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B15" s="8">
         <v>17</v>
       </c>
@@ -9744,7 +9389,7 @@
       </c>
       <c r="AJ15" s="1"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B16" s="8">
         <v>27</v>
       </c>
@@ -9837,7 +9482,7 @@
       </c>
       <c r="AJ16" s="1"/>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B17" s="8">
         <v>19</v>
       </c>
@@ -9930,7 +9575,7 @@
       </c>
       <c r="AJ17" s="1"/>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B18" s="8">
         <v>37</v>
       </c>
@@ -10023,7 +9668,7 @@
       </c>
       <c r="AJ18" s="1"/>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B19" s="8">
         <v>6</v>
       </c>
@@ -10116,7 +9761,7 @@
       </c>
       <c r="AJ19" s="1"/>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B20" s="8">
         <v>28</v>
       </c>
@@ -10209,7 +9854,7 @@
       </c>
       <c r="AJ20" s="1"/>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B21" s="8">
         <v>7</v>
       </c>
@@ -10302,7 +9947,7 @@
       </c>
       <c r="AJ21" s="1"/>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B22" s="8">
         <v>18</v>
       </c>
@@ -10395,7 +10040,7 @@
       </c>
       <c r="AJ22" s="1"/>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B23" s="8">
         <v>44</v>
       </c>
@@ -10488,7 +10133,7 @@
       </c>
       <c r="AJ23" s="1"/>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B24" s="8">
         <v>31</v>
       </c>
@@ -10581,7 +10226,7 @@
       </c>
       <c r="AJ24" s="1"/>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B25" s="8">
         <v>38</v>
       </c>
@@ -10674,7 +10319,7 @@
       </c>
       <c r="AJ25" s="1"/>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B26" s="8">
         <v>9</v>
       </c>
@@ -10767,7 +10412,7 @@
       </c>
       <c r="AJ26" s="1"/>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B27" s="8">
         <v>8</v>
       </c>
@@ -10860,7 +10505,7 @@
       </c>
       <c r="AJ27" s="1"/>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B28" s="8">
         <v>1</v>
       </c>
@@ -10953,7 +10598,7 @@
       </c>
       <c r="AJ28" s="1"/>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B29" s="8">
         <v>22</v>
       </c>
@@ -11046,7 +10691,7 @@
       </c>
       <c r="AJ29" s="1"/>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B30" s="8">
         <v>16</v>
       </c>
@@ -11139,7 +10784,7 @@
       </c>
       <c r="AJ30" s="1"/>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B31" s="8">
         <v>41</v>
       </c>
@@ -11232,7 +10877,7 @@
       </c>
       <c r="AJ31" s="1"/>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B32" s="8">
         <v>34</v>
       </c>
@@ -11325,7 +10970,7 @@
       </c>
       <c r="AJ32" s="1"/>
     </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B33" s="8">
         <v>3</v>
       </c>
@@ -11418,7 +11063,7 @@
       </c>
       <c r="AJ33" s="1"/>
     </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B34" s="8">
         <v>40</v>
       </c>
@@ -11511,7 +11156,7 @@
       </c>
       <c r="AJ34" s="1"/>
     </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B35" s="8">
         <v>15</v>
       </c>
@@ -11604,7 +11249,7 @@
       </c>
       <c r="AJ35" s="1"/>
     </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B36" s="8">
         <v>12</v>
       </c>
@@ -11697,7 +11342,7 @@
       </c>
       <c r="AJ36" s="1"/>
     </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B37" s="8">
         <v>11</v>
       </c>
@@ -11790,7 +11435,7 @@
       </c>
       <c r="AJ37" s="1"/>
     </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B38" s="8">
         <v>23</v>
       </c>
@@ -11883,7 +11528,7 @@
       </c>
       <c r="AJ38" s="1"/>
     </row>
-    <row r="39" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B39" s="8">
         <v>14</v>
       </c>
@@ -11976,7 +11621,7 @@
       </c>
       <c r="AJ39" s="1"/>
     </row>
-    <row r="40" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B40" s="8">
         <v>25</v>
       </c>
@@ -12069,7 +11714,7 @@
       </c>
       <c r="AJ40" s="1"/>
     </row>
-    <row r="41" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B41" s="8">
         <v>39</v>
       </c>
@@ -12162,7 +11807,7 @@
       </c>
       <c r="AJ41" s="1"/>
     </row>
-    <row r="42" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B42" s="8">
         <v>48</v>
       </c>
@@ -12255,7 +11900,7 @@
       </c>
       <c r="AJ42" s="1"/>
     </row>
-    <row r="43" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B43" s="8">
         <v>5</v>
       </c>
@@ -12348,7 +11993,7 @@
       </c>
       <c r="AJ43" s="1"/>
     </row>
-    <row r="44" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B44" s="8">
         <v>29</v>
       </c>
@@ -12441,7 +12086,7 @@
       </c>
       <c r="AJ44" s="1"/>
     </row>
-    <row r="45" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B45" s="8">
         <v>2</v>
       </c>
@@ -12534,7 +12179,7 @@
       </c>
       <c r="AJ45" s="1"/>
     </row>
-    <row r="46" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B46" s="8">
         <v>26</v>
       </c>
@@ -12627,7 +12272,7 @@
       </c>
       <c r="AJ46" s="1"/>
     </row>
-    <row r="47" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B47" s="8">
         <v>4</v>
       </c>
@@ -12720,7 +12365,7 @@
       </c>
       <c r="AJ47" s="1"/>
     </row>
-    <row r="48" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B48" s="8">
         <v>35</v>
       </c>
@@ -12813,7 +12458,7 @@
       </c>
       <c r="AJ48" s="1"/>
     </row>
-    <row r="49" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B49" s="8">
         <v>45</v>
       </c>
@@ -12906,7 +12551,7 @@
       </c>
       <c r="AJ49" s="1"/>
     </row>
-    <row r="50" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B50" s="8">
         <v>10</v>
       </c>
@@ -12999,7 +12644,7 @@
       </c>
       <c r="AJ50" s="1"/>
     </row>
-    <row r="51" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B51" s="8">
         <v>42</v>
       </c>
@@ -13092,928 +12737,118 @@
       </c>
       <c r="AJ51" s="1"/>
     </row>
-    <row r="52" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="13"/>
-      <c r="V52" s="13"/>
-      <c r="W52" s="13"/>
-      <c r="X52" s="13"/>
-      <c r="Y52" s="13"/>
-      <c r="Z52" s="13"/>
-      <c r="AA52" s="13"/>
-      <c r="AB52" s="13"/>
-      <c r="AC52" s="13"/>
-      <c r="AD52" s="13"/>
-      <c r="AE52" s="13"/>
+    <row r="52" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="12"/>
+      <c r="AC52" s="12"/>
+      <c r="AD52" s="12"/>
+      <c r="AE52" s="12"/>
       <c r="AJ52" s="1"/>
     </row>
-    <row r="53" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="12"/>
-      <c r="V53" s="12"/>
-      <c r="W53" s="12"/>
-      <c r="X53" s="12"/>
-      <c r="Y53" s="12"/>
-      <c r="Z53" s="12"/>
-      <c r="AA53" s="12"/>
-      <c r="AB53" s="12"/>
-      <c r="AC53" s="12"/>
-      <c r="AD53" s="12"/>
-      <c r="AE53" s="12"/>
+    <row r="53" spans="2:36" x14ac:dyDescent="0.35">
       <c r="AJ53" s="1"/>
     </row>
-    <row r="54" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12"/>
-      <c r="U54" s="12"/>
-      <c r="V54" s="12"/>
-      <c r="W54" s="12"/>
-      <c r="X54" s="12"/>
-      <c r="Y54" s="12"/>
-      <c r="Z54" s="12"/>
-      <c r="AA54" s="12"/>
-      <c r="AB54" s="12"/>
-      <c r="AC54" s="12"/>
-      <c r="AD54" s="12"/>
-      <c r="AE54" s="12"/>
+    <row r="54" spans="2:36" x14ac:dyDescent="0.35">
       <c r="AJ54" s="1"/>
     </row>
-    <row r="55" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
-      <c r="T55" s="12"/>
-      <c r="U55" s="12"/>
-      <c r="V55" s="12"/>
-      <c r="W55" s="12"/>
-      <c r="X55" s="12"/>
-      <c r="Y55" s="12"/>
-      <c r="Z55" s="12"/>
-      <c r="AA55" s="12"/>
-      <c r="AB55" s="12"/>
-      <c r="AC55" s="12"/>
-      <c r="AD55" s="12"/>
-      <c r="AE55" s="12"/>
+    <row r="55" spans="2:36" x14ac:dyDescent="0.35">
       <c r="AJ55" s="1"/>
     </row>
-    <row r="56" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="12"/>
-      <c r="V56" s="12"/>
-      <c r="W56" s="12"/>
-      <c r="X56" s="12"/>
-      <c r="Y56" s="12"/>
-      <c r="Z56" s="12"/>
-      <c r="AA56" s="12"/>
-      <c r="AB56" s="12"/>
-      <c r="AC56" s="12"/>
-      <c r="AD56" s="12"/>
-      <c r="AE56" s="12"/>
+    <row r="56" spans="2:36" x14ac:dyDescent="0.35">
       <c r="AJ56" s="1"/>
     </row>
-    <row r="57" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="12"/>
-      <c r="V57" s="12"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="12"/>
-      <c r="Y57" s="12"/>
-      <c r="Z57" s="12"/>
-      <c r="AA57" s="12"/>
-      <c r="AB57" s="12"/>
-      <c r="AC57" s="12"/>
-      <c r="AD57" s="12"/>
-      <c r="AE57" s="12"/>
+    <row r="57" spans="2:36" x14ac:dyDescent="0.35">
       <c r="AJ57" s="1"/>
     </row>
-    <row r="58" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
-      <c r="T58" s="12"/>
-      <c r="U58" s="12"/>
-      <c r="V58" s="12"/>
-      <c r="W58" s="12"/>
-      <c r="X58" s="12"/>
-      <c r="Y58" s="12"/>
-      <c r="Z58" s="12"/>
-      <c r="AA58" s="12"/>
-      <c r="AB58" s="12"/>
-      <c r="AC58" s="12"/>
-      <c r="AD58" s="12"/>
-      <c r="AE58" s="12"/>
+    <row r="58" spans="2:36" x14ac:dyDescent="0.35">
       <c r="AJ58" s="1"/>
     </row>
-    <row r="59" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="12"/>
-      <c r="S59" s="12"/>
-      <c r="T59" s="12"/>
-      <c r="U59" s="12"/>
-      <c r="V59" s="12"/>
-      <c r="W59" s="12"/>
-      <c r="X59" s="12"/>
-      <c r="Y59" s="12"/>
-      <c r="Z59" s="12"/>
-      <c r="AA59" s="12"/>
-      <c r="AB59" s="12"/>
-      <c r="AC59" s="12"/>
-      <c r="AD59" s="12"/>
-      <c r="AE59" s="12"/>
+    <row r="59" spans="2:36" x14ac:dyDescent="0.35">
       <c r="AJ59" s="1"/>
     </row>
-    <row r="60" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
-      <c r="S60" s="12"/>
-      <c r="T60" s="12"/>
-      <c r="U60" s="12"/>
-      <c r="V60" s="12"/>
-      <c r="W60" s="12"/>
-      <c r="X60" s="12"/>
-      <c r="Y60" s="12"/>
-      <c r="Z60" s="12"/>
-      <c r="AA60" s="12"/>
-      <c r="AB60" s="12"/>
-      <c r="AC60" s="12"/>
-      <c r="AD60" s="12"/>
-      <c r="AE60" s="12"/>
+    <row r="60" spans="2:36" x14ac:dyDescent="0.35">
       <c r="AJ60" s="1"/>
     </row>
-    <row r="61" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="12"/>
-      <c r="S61" s="12"/>
-      <c r="T61" s="12"/>
-      <c r="U61" s="12"/>
-      <c r="V61" s="12"/>
-      <c r="W61" s="12"/>
-      <c r="X61" s="12"/>
-      <c r="Y61" s="12"/>
-      <c r="Z61" s="12"/>
-      <c r="AA61" s="12"/>
-      <c r="AB61" s="12"/>
-      <c r="AC61" s="12"/>
-      <c r="AD61" s="12"/>
-      <c r="AE61" s="12"/>
+    <row r="61" spans="2:36" x14ac:dyDescent="0.35">
       <c r="AJ61" s="1"/>
     </row>
-    <row r="62" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
-      <c r="S62" s="12"/>
-      <c r="T62" s="12"/>
-      <c r="U62" s="12"/>
-      <c r="V62" s="12"/>
-      <c r="W62" s="12"/>
-      <c r="X62" s="12"/>
-      <c r="Y62" s="12"/>
-      <c r="Z62" s="12"/>
-      <c r="AA62" s="12"/>
-      <c r="AB62" s="12"/>
-      <c r="AC62" s="12"/>
-      <c r="AD62" s="12"/>
-      <c r="AE62" s="12"/>
+    <row r="62" spans="2:36" x14ac:dyDescent="0.35">
       <c r="AJ62" s="1"/>
     </row>
-    <row r="63" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="12"/>
-      <c r="S63" s="12"/>
-      <c r="T63" s="12"/>
-      <c r="U63" s="12"/>
-      <c r="V63" s="12"/>
-      <c r="W63" s="12"/>
-      <c r="X63" s="12"/>
-      <c r="Y63" s="12"/>
-      <c r="Z63" s="12"/>
-      <c r="AA63" s="12"/>
-      <c r="AB63" s="12"/>
-      <c r="AC63" s="12"/>
-      <c r="AD63" s="12"/>
-      <c r="AE63" s="12"/>
+    <row r="63" spans="2:36" x14ac:dyDescent="0.35">
       <c r="AJ63" s="1"/>
     </row>
-    <row r="64" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="12"/>
-      <c r="S64" s="12"/>
-      <c r="T64" s="12"/>
-      <c r="U64" s="12"/>
-      <c r="V64" s="12"/>
-      <c r="W64" s="12"/>
-      <c r="X64" s="12"/>
-      <c r="Y64" s="12"/>
-      <c r="Z64" s="12"/>
-      <c r="AA64" s="12"/>
-      <c r="AB64" s="12"/>
-      <c r="AC64" s="12"/>
-      <c r="AD64" s="12"/>
-      <c r="AE64" s="12"/>
+    <row r="64" spans="2:36" x14ac:dyDescent="0.35">
       <c r="AJ64" s="1"/>
     </row>
-    <row r="65" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="12"/>
-      <c r="S65" s="12"/>
-      <c r="T65" s="12"/>
-      <c r="U65" s="12"/>
-      <c r="V65" s="12"/>
-      <c r="W65" s="12"/>
-      <c r="X65" s="12"/>
-      <c r="Y65" s="12"/>
-      <c r="Z65" s="12"/>
-      <c r="AA65" s="12"/>
-      <c r="AB65" s="12"/>
-      <c r="AC65" s="12"/>
-      <c r="AD65" s="12"/>
-      <c r="AE65" s="12"/>
+    <row r="65" spans="36:36" x14ac:dyDescent="0.35">
       <c r="AJ65" s="1"/>
     </row>
-    <row r="66" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="12"/>
-      <c r="R66" s="12"/>
-      <c r="S66" s="12"/>
-      <c r="T66" s="12"/>
-      <c r="U66" s="12"/>
-      <c r="V66" s="12"/>
-      <c r="W66" s="12"/>
-      <c r="X66" s="12"/>
-      <c r="Y66" s="12"/>
-      <c r="Z66" s="12"/>
-      <c r="AA66" s="12"/>
-      <c r="AB66" s="12"/>
-      <c r="AC66" s="12"/>
-      <c r="AD66" s="12"/>
-      <c r="AE66" s="12"/>
+    <row r="66" spans="36:36" x14ac:dyDescent="0.35">
       <c r="AJ66" s="1"/>
     </row>
-    <row r="67" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
-      <c r="P67" s="12"/>
-      <c r="Q67" s="12"/>
-      <c r="R67" s="12"/>
-      <c r="S67" s="12"/>
-      <c r="T67" s="12"/>
-      <c r="U67" s="12"/>
-      <c r="V67" s="12"/>
-      <c r="W67" s="12"/>
-      <c r="X67" s="12"/>
-      <c r="Y67" s="12"/>
-      <c r="Z67" s="12"/>
-      <c r="AA67" s="12"/>
-      <c r="AB67" s="12"/>
-      <c r="AC67" s="12"/>
-      <c r="AD67" s="12"/>
-      <c r="AE67" s="12"/>
+    <row r="67" spans="36:36" x14ac:dyDescent="0.35">
       <c r="AJ67" s="1"/>
     </row>
-    <row r="68" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
-      <c r="S68" s="12"/>
-      <c r="T68" s="12"/>
-      <c r="U68" s="12"/>
-      <c r="V68" s="12"/>
-      <c r="W68" s="12"/>
-      <c r="X68" s="12"/>
-      <c r="Y68" s="12"/>
-      <c r="Z68" s="12"/>
-      <c r="AA68" s="12"/>
-      <c r="AB68" s="12"/>
-      <c r="AC68" s="12"/>
-      <c r="AD68" s="12"/>
-      <c r="AE68" s="12"/>
+    <row r="68" spans="36:36" x14ac:dyDescent="0.35">
       <c r="AJ68" s="1"/>
     </row>
-    <row r="69" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
-      <c r="S69" s="12"/>
-      <c r="T69" s="12"/>
-      <c r="U69" s="12"/>
-      <c r="V69" s="12"/>
-      <c r="W69" s="12"/>
-      <c r="X69" s="12"/>
-      <c r="Y69" s="12"/>
-      <c r="Z69" s="12"/>
-      <c r="AA69" s="12"/>
-      <c r="AB69" s="12"/>
-      <c r="AC69" s="12"/>
-      <c r="AD69" s="12"/>
-      <c r="AE69" s="12"/>
+    <row r="69" spans="36:36" x14ac:dyDescent="0.35">
       <c r="AJ69" s="1"/>
     </row>
-    <row r="70" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
-      <c r="S70" s="12"/>
-      <c r="T70" s="12"/>
-      <c r="U70" s="12"/>
-      <c r="V70" s="12"/>
-      <c r="W70" s="12"/>
-      <c r="X70" s="12"/>
-      <c r="Y70" s="12"/>
-      <c r="Z70" s="12"/>
-      <c r="AA70" s="12"/>
-      <c r="AB70" s="12"/>
-      <c r="AC70" s="12"/>
-      <c r="AD70" s="12"/>
-      <c r="AE70" s="12"/>
+    <row r="70" spans="36:36" x14ac:dyDescent="0.35">
       <c r="AJ70" s="1"/>
     </row>
-    <row r="71" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="12"/>
-      <c r="R71" s="12"/>
-      <c r="S71" s="12"/>
-      <c r="T71" s="12"/>
-      <c r="U71" s="12"/>
-      <c r="V71" s="12"/>
-      <c r="W71" s="12"/>
-      <c r="X71" s="12"/>
-      <c r="Y71" s="12"/>
-      <c r="Z71" s="12"/>
-      <c r="AA71" s="12"/>
-      <c r="AB71" s="12"/>
-      <c r="AC71" s="12"/>
-      <c r="AD71" s="12"/>
-      <c r="AE71" s="12"/>
+    <row r="71" spans="36:36" x14ac:dyDescent="0.35">
       <c r="AJ71" s="1"/>
     </row>
-    <row r="72" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="12"/>
-      <c r="S72" s="12"/>
-      <c r="T72" s="12"/>
-      <c r="U72" s="12"/>
-      <c r="V72" s="12"/>
-      <c r="W72" s="12"/>
-      <c r="X72" s="12"/>
-      <c r="Y72" s="12"/>
-      <c r="Z72" s="12"/>
-      <c r="AA72" s="12"/>
-      <c r="AB72" s="12"/>
-      <c r="AC72" s="12"/>
-      <c r="AD72" s="12"/>
-      <c r="AE72" s="12"/>
+    <row r="72" spans="36:36" x14ac:dyDescent="0.35">
       <c r="AJ72" s="1"/>
     </row>
-    <row r="73" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="12"/>
-      <c r="S73" s="12"/>
-      <c r="T73" s="12"/>
-      <c r="U73" s="12"/>
-      <c r="V73" s="12"/>
-      <c r="W73" s="12"/>
-      <c r="X73" s="12"/>
-      <c r="Y73" s="12"/>
-      <c r="Z73" s="12"/>
-      <c r="AA73" s="12"/>
-      <c r="AB73" s="12"/>
-      <c r="AC73" s="12"/>
-      <c r="AD73" s="12"/>
-      <c r="AE73" s="12"/>
+    <row r="73" spans="36:36" x14ac:dyDescent="0.35">
       <c r="AJ73" s="1"/>
     </row>
-    <row r="74" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
-      <c r="S74" s="12"/>
-      <c r="T74" s="12"/>
-      <c r="U74" s="12"/>
-      <c r="V74" s="12"/>
-      <c r="W74" s="12"/>
-      <c r="X74" s="12"/>
-      <c r="Y74" s="12"/>
-      <c r="Z74" s="12"/>
-      <c r="AA74" s="12"/>
-      <c r="AB74" s="12"/>
-      <c r="AC74" s="12"/>
-      <c r="AD74" s="12"/>
-      <c r="AE74" s="12"/>
+    <row r="74" spans="36:36" x14ac:dyDescent="0.35">
       <c r="AJ74" s="1"/>
     </row>
-    <row r="75" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12"/>
-      <c r="S75" s="12"/>
-      <c r="T75" s="12"/>
-      <c r="U75" s="12"/>
-      <c r="V75" s="12"/>
-      <c r="W75" s="12"/>
-      <c r="X75" s="12"/>
-      <c r="Y75" s="12"/>
-      <c r="Z75" s="12"/>
-      <c r="AA75" s="12"/>
-      <c r="AB75" s="12"/>
-      <c r="AC75" s="12"/>
-      <c r="AD75" s="12"/>
-      <c r="AE75" s="12"/>
+    <row r="75" spans="36:36" x14ac:dyDescent="0.35">
       <c r="AJ75" s="1"/>
     </row>
-    <row r="76" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="12"/>
-      <c r="R76" s="12"/>
-      <c r="S76" s="12"/>
-      <c r="T76" s="12"/>
-      <c r="U76" s="12"/>
-      <c r="V76" s="12"/>
-      <c r="W76" s="12"/>
-      <c r="X76" s="12"/>
-      <c r="Y76" s="12"/>
-      <c r="Z76" s="12"/>
-      <c r="AA76" s="12"/>
-      <c r="AB76" s="12"/>
-      <c r="AC76" s="12"/>
-      <c r="AD76" s="12"/>
-      <c r="AE76" s="12"/>
+    <row r="76" spans="36:36" x14ac:dyDescent="0.35">
       <c r="AJ76" s="1"/>
     </row>
-    <row r="77" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
-      <c r="P77" s="12"/>
-      <c r="Q77" s="12"/>
-      <c r="R77" s="12"/>
-      <c r="S77" s="12"/>
-      <c r="T77" s="12"/>
-      <c r="U77" s="12"/>
-      <c r="V77" s="12"/>
-      <c r="W77" s="12"/>
-      <c r="X77" s="12"/>
-      <c r="Y77" s="12"/>
-      <c r="Z77" s="12"/>
-      <c r="AA77" s="12"/>
-      <c r="AB77" s="12"/>
-      <c r="AC77" s="12"/>
-      <c r="AD77" s="12"/>
-      <c r="AE77" s="12"/>
+    <row r="77" spans="36:36" x14ac:dyDescent="0.35">
       <c r="AJ77" s="1"/>
     </row>
-    <row r="78" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="12"/>
-      <c r="R78" s="12"/>
-      <c r="S78" s="12"/>
-      <c r="T78" s="12"/>
-      <c r="U78" s="12"/>
-      <c r="V78" s="12"/>
-      <c r="W78" s="12"/>
-      <c r="X78" s="12"/>
-      <c r="Y78" s="12"/>
-      <c r="Z78" s="12"/>
-      <c r="AA78" s="12"/>
-      <c r="AB78" s="12"/>
-      <c r="AC78" s="12"/>
-      <c r="AD78" s="12"/>
-      <c r="AE78" s="12"/>
+    <row r="78" spans="36:36" x14ac:dyDescent="0.35">
       <c r="AJ78" s="1"/>
     </row>
-    <row r="79" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
-      <c r="Q79" s="12"/>
-      <c r="R79" s="12"/>
-      <c r="S79" s="12"/>
-      <c r="T79" s="12"/>
-      <c r="U79" s="12"/>
-      <c r="V79" s="12"/>
-      <c r="W79" s="12"/>
-      <c r="X79" s="12"/>
-      <c r="Y79" s="12"/>
-      <c r="Z79" s="12"/>
-      <c r="AA79" s="12"/>
-      <c r="AB79" s="12"/>
-      <c r="AC79" s="12"/>
-      <c r="AD79" s="12"/>
-      <c r="AE79" s="12"/>
+    <row r="79" spans="36:36" x14ac:dyDescent="0.35">
       <c r="AJ79" s="1"/>
     </row>
   </sheetData>
@@ -14022,6 +12857,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101006A925F5E9A5E264AAB9BFB87D6DDBA75" ma:contentTypeVersion="2" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="618daf81d6e163d2462bbba7f13fa102">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c7d67365-c351-4aa4-8210-10bc47b927b5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dabdf1b32e3a97cf46ab78a0656d58dd" ns2:_="">
     <xsd:import namespace="c7d67365-c351-4aa4-8210-10bc47b927b5"/>
@@ -14153,35 +13003,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA39AEE5-9124-42E2-B4F6-A9AB16FAB73A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F012824-A860-4E6F-866B-AF6FDB95199B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c7d67365-c351-4aa4-8210-10bc47b927b5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14203,9 +13028,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F012824-A860-4E6F-866B-AF6FDB95199B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA39AEE5-9124-42E2-B4F6-A9AB16FAB73A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c7d67365-c351-4aa4-8210-10bc47b927b5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Dane/Dane_TSP_48.xlsx
+++ b/Dane/Dane_TSP_48.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korne\Desktop\Studia\semestr 5\IO\projekt 2\solver\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2742A22E-8DB5-4F2D-8D6D-5C0B8D84C09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2FA8A3EE-EA3E-4819-A1B5-000F2EAF05A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="dane" sheetId="1" r:id="rId1"/>
@@ -60,8 +54,8 @@
     <definedName name="zakres">dane!$A$1:$AW$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -78,10 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Lp.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>rozw</t>
   </si>
@@ -191,8 +182,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,7 +374,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -435,7 +426,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -629,26 +620,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3B79AD-2274-48D8-9762-E5F82AA05FE6}">
-  <dimension ref="A1:BA50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AW49"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BC2" sqref="BC2"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP33" sqref="AP33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="54" max="54" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49">
       <c r="B1">
         <v>1</v>
       </c>
@@ -793,11 +784,8 @@
       <c r="AW1">
         <v>48</v>
       </c>
-      <c r="AZ1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49">
       <c r="A2">
         <v>1</v>
       </c>
@@ -945,15 +933,8 @@
       <c r="AW2">
         <v>1184</v>
       </c>
-      <c r="AZ2">
-        <v>10</v>
-      </c>
-      <c r="BA2">
-        <f t="shared" ref="BA2:BA49" si="0">VLOOKUP(AZ2,zakres,INDEX(wiersz,MATCH(AZ3,wiersz))+1,FALSE)</f>
-        <v>444</v>
-      </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1101,15 +1082,8 @@
       <c r="AW3">
         <v>661</v>
       </c>
-      <c r="AZ3">
-        <v>4</v>
-      </c>
-      <c r="BA3">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1257,15 +1231,8 @@
       <c r="AW4">
         <v>810</v>
       </c>
-      <c r="AZ4">
-        <v>26</v>
-      </c>
-      <c r="BA4">
-        <f t="shared" si="0"/>
-        <v>431</v>
-      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1413,15 +1380,8 @@
       <c r="AW5">
         <v>900</v>
       </c>
-      <c r="AZ5">
-        <v>42</v>
-      </c>
-      <c r="BA5">
-        <f t="shared" si="0"/>
-        <v>1164</v>
-      </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1569,15 +1529,8 @@
       <c r="AW6">
         <v>97</v>
       </c>
-      <c r="AZ6">
-        <v>47</v>
-      </c>
-      <c r="BA6">
-        <f t="shared" si="0"/>
-        <v>246</v>
-      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1725,15 +1678,8 @@
       <c r="AW7">
         <v>1654</v>
       </c>
-      <c r="AZ7">
-        <v>20</v>
-      </c>
-      <c r="BA7">
-        <f t="shared" si="0"/>
-        <v>574</v>
-      </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1881,15 +1827,8 @@
       <c r="AW8">
         <v>1545</v>
       </c>
-      <c r="AZ8">
-        <v>31</v>
-      </c>
-      <c r="BA8">
-        <f t="shared" si="0"/>
-        <v>493</v>
-      </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2037,15 +1976,8 @@
       <c r="AW9">
         <v>1359</v>
       </c>
-      <c r="AZ9">
-        <v>8</v>
-      </c>
-      <c r="BA9">
-        <f t="shared" si="0"/>
-        <v>228</v>
-      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2193,15 +2125,8 @@
       <c r="AW10">
         <v>1226</v>
       </c>
-      <c r="AZ10">
-        <v>9</v>
-      </c>
-      <c r="BA10">
-        <f t="shared" si="0"/>
-        <v>147</v>
-      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2349,15 +2274,8 @@
       <c r="AW11">
         <v>606</v>
       </c>
-      <c r="AZ11">
-        <v>1</v>
-      </c>
-      <c r="BA11">
-        <f t="shared" si="0"/>
-        <v>261</v>
-      </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2505,15 +2423,8 @@
       <c r="AW12">
         <v>802</v>
       </c>
-      <c r="AZ12">
-        <v>40</v>
-      </c>
-      <c r="BA12">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2661,15 +2572,8 @@
       <c r="AW13">
         <v>984</v>
       </c>
-      <c r="AZ13">
-        <v>12</v>
-      </c>
-      <c r="BA13">
-        <f t="shared" si="0"/>
-        <v>411</v>
-      </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2817,15 +2721,8 @@
       <c r="AW14">
         <v>581</v>
       </c>
-      <c r="AZ14">
-        <v>13</v>
-      </c>
-      <c r="BA14">
-        <f t="shared" si="0"/>
-        <v>205</v>
-      </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2973,15 +2870,8 @@
       <c r="AW15">
         <v>504</v>
       </c>
-      <c r="AZ15">
-        <v>14</v>
-      </c>
-      <c r="BA15">
-        <f t="shared" si="0"/>
-        <v>192</v>
-      </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3129,15 +3019,8 @@
       <c r="AW16">
         <v>1077</v>
       </c>
-      <c r="AZ16">
-        <v>23</v>
-      </c>
-      <c r="BA16">
-        <f t="shared" si="0"/>
-        <v>159</v>
-      </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:49">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3285,15 +3168,8 @@
       <c r="AW17">
         <v>1056</v>
       </c>
-      <c r="AZ17">
-        <v>11</v>
-      </c>
-      <c r="BA17">
-        <f t="shared" si="0"/>
-        <v>787</v>
-      </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:49">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3441,15 +3317,8 @@
       <c r="AW18">
         <v>1777</v>
       </c>
-      <c r="AZ18">
-        <v>28</v>
-      </c>
-      <c r="BA18">
-        <f t="shared" si="0"/>
-        <v>207</v>
-      </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:49">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3597,15 +3466,8 @@
       <c r="AW19">
         <v>1498</v>
       </c>
-      <c r="AZ19">
-        <v>37</v>
-      </c>
-      <c r="BA19">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:49">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3753,15 +3615,8 @@
       <c r="AW20">
         <v>1730</v>
       </c>
-      <c r="AZ20">
-        <v>19</v>
-      </c>
-      <c r="BA20">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:49">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3909,15 +3764,8 @@
       <c r="AW21">
         <v>1044</v>
       </c>
-      <c r="AZ21">
-        <v>6</v>
-      </c>
-      <c r="BA21">
-        <f t="shared" si="0"/>
-        <v>1047</v>
-      </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:49">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4065,15 +3913,8 @@
       <c r="AW22">
         <v>646</v>
       </c>
-      <c r="AZ22">
-        <v>21</v>
-      </c>
-      <c r="BA22">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:49">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4221,15 +4062,8 @@
       <c r="AW23">
         <v>1009</v>
       </c>
-      <c r="AZ23">
-        <v>39</v>
-      </c>
-      <c r="BA23">
-        <f t="shared" si="0"/>
-        <v>169</v>
-      </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:49">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4377,15 +4211,8 @@
       <c r="AW24">
         <v>693</v>
       </c>
-      <c r="AZ24">
-        <v>32</v>
-      </c>
-      <c r="BA24">
-        <f t="shared" si="0"/>
-        <v>534</v>
-      </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:49">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4533,15 +4360,8 @@
       <c r="AW25">
         <v>519</v>
       </c>
-      <c r="AZ25">
-        <v>24</v>
-      </c>
-      <c r="BA25">
-        <f t="shared" si="0"/>
-        <v>543</v>
-      </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:49">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4689,15 +4509,8 @@
       <c r="AW26">
         <v>424</v>
       </c>
-      <c r="AZ26">
-        <v>35</v>
-      </c>
-      <c r="BA26">
-        <f t="shared" si="0"/>
-        <v>146</v>
-      </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:49">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4845,15 +4658,8 @@
       <c r="AW27">
         <v>800</v>
       </c>
-      <c r="AZ27">
-        <v>45</v>
-      </c>
-      <c r="BA27">
-        <f t="shared" si="0"/>
-        <v>2481</v>
-      </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:49">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5001,15 +4807,8 @@
       <c r="AW28">
         <v>1698</v>
       </c>
-      <c r="AZ28">
-        <v>27</v>
-      </c>
-      <c r="BA28">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:49">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5157,15 +4956,8 @@
       <c r="AW29">
         <v>1568</v>
       </c>
-      <c r="AZ29">
-        <v>17</v>
-      </c>
-      <c r="BA29">
-        <f t="shared" si="0"/>
-        <v>139</v>
-      </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:49">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5313,15 +5105,8 @@
       <c r="AW30">
         <v>379</v>
       </c>
-      <c r="AZ30">
-        <v>43</v>
-      </c>
-      <c r="BA30">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:49">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5469,15 +5254,8 @@
       <c r="AW31">
         <v>1592</v>
       </c>
-      <c r="AZ31">
-        <v>30</v>
-      </c>
-      <c r="BA31">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:49">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5625,15 +5403,8 @@
       <c r="AW32">
         <v>1456</v>
       </c>
-      <c r="AZ32">
-        <v>7</v>
-      </c>
-      <c r="BA32">
-        <f t="shared" si="0"/>
-        <v>153</v>
-      </c>
     </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:49">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5781,15 +5552,8 @@
       <c r="AW33">
         <v>437</v>
       </c>
-      <c r="AZ33">
-        <v>44</v>
-      </c>
-      <c r="BA33">
-        <f t="shared" si="0"/>
-        <v>344</v>
-      </c>
     </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:49">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5937,15 +5701,8 @@
       <c r="AW34">
         <v>1145</v>
       </c>
-      <c r="AZ34">
-        <v>33</v>
-      </c>
-      <c r="BA34">
-        <f t="shared" si="0"/>
-        <v>157</v>
-      </c>
     </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:49">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6093,15 +5850,8 @@
       <c r="AW35">
         <v>554</v>
       </c>
-      <c r="AZ35">
-        <v>15</v>
-      </c>
-      <c r="BA35">
-        <f t="shared" si="0"/>
-        <v>176</v>
-      </c>
     </row>
-    <row r="36" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:49">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6249,15 +5999,8 @@
       <c r="AW36">
         <v>953</v>
       </c>
-      <c r="AZ36">
-        <v>46</v>
-      </c>
-      <c r="BA36">
-        <f t="shared" si="0"/>
-        <v>286</v>
-      </c>
     </row>
-    <row r="37" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:49">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6405,15 +6148,8 @@
       <c r="AW37">
         <v>1457</v>
       </c>
-      <c r="AZ37">
-        <v>36</v>
-      </c>
-      <c r="BA37">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
     </row>
-    <row r="38" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:49">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6561,15 +6297,8 @@
       <c r="AW38">
         <v>1718</v>
       </c>
-      <c r="AZ38">
-        <v>18</v>
-      </c>
-      <c r="BA38">
-        <f t="shared" si="0"/>
-        <v>427</v>
-      </c>
     </row>
-    <row r="39" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:49">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6717,15 +6446,8 @@
       <c r="AW39">
         <v>1385</v>
       </c>
-      <c r="AZ39">
-        <v>38</v>
-      </c>
-      <c r="BA39">
-        <f t="shared" si="0"/>
-        <v>544</v>
-      </c>
     </row>
-    <row r="40" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:49">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6873,15 +6595,8 @@
       <c r="AW40">
         <v>317</v>
       </c>
-      <c r="AZ40">
-        <v>22</v>
-      </c>
-      <c r="BA40">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
     </row>
-    <row r="41" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:49">
       <c r="A41">
         <v>40</v>
       </c>
@@ -7029,15 +6744,8 @@
       <c r="AW41">
         <v>1029</v>
       </c>
-      <c r="AZ41">
-        <v>16</v>
-      </c>
-      <c r="BA41">
-        <f t="shared" si="0"/>
-        <v>393</v>
-      </c>
     </row>
-    <row r="42" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:49">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7185,15 +6893,8 @@
       <c r="AW42">
         <v>843</v>
       </c>
-      <c r="AZ42">
-        <v>41</v>
-      </c>
-      <c r="BA42">
-        <f t="shared" si="0"/>
-        <v>872</v>
-      </c>
     </row>
-    <row r="43" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:49">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7341,15 +7042,8 @@
       <c r="AW43">
         <v>370</v>
       </c>
-      <c r="AZ43">
-        <v>2</v>
-      </c>
-      <c r="BA43">
-        <f t="shared" si="0"/>
-        <v>381</v>
-      </c>
     </row>
-    <row r="44" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:49">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7497,15 +7191,8 @@
       <c r="AW44">
         <v>1640</v>
       </c>
-      <c r="AZ44">
-        <v>29</v>
-      </c>
-      <c r="BA44">
-        <f t="shared" si="0"/>
-        <v>474</v>
-      </c>
     </row>
-    <row r="45" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:49">
       <c r="A45">
         <v>44</v>
       </c>
@@ -7653,15 +7340,8 @@
       <c r="AW45">
         <v>1477</v>
       </c>
-      <c r="AZ45">
-        <v>34</v>
-      </c>
-      <c r="BA45">
-        <f t="shared" si="0"/>
-        <v>301</v>
-      </c>
     </row>
-    <row r="46" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:49">
       <c r="A46">
         <v>45</v>
       </c>
@@ -7809,15 +7489,8 @@
       <c r="AW46">
         <v>981</v>
       </c>
-      <c r="AZ46">
-        <v>3</v>
-      </c>
-      <c r="BA46">
-        <f t="shared" si="0"/>
-        <v>480</v>
-      </c>
     </row>
-    <row r="47" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:49">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7965,15 +7638,8 @@
       <c r="AW47">
         <v>1242</v>
       </c>
-      <c r="AZ47">
-        <v>25</v>
-      </c>
-      <c r="BA47">
-        <f t="shared" si="0"/>
-        <v>443</v>
-      </c>
     </row>
-    <row r="48" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:49">
       <c r="A48">
         <v>47</v>
       </c>
@@ -8121,15 +7787,8 @@
       <c r="AW48">
         <v>801</v>
       </c>
-      <c r="AZ48">
-        <v>5</v>
-      </c>
-      <c r="BA48">
-        <f t="shared" si="0"/>
-        <v>97</v>
-      </c>
     </row>
-    <row r="49" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:49">
       <c r="A49">
         <v>48</v>
       </c>
@@ -8276,23 +7935,6 @@
       </c>
       <c r="AW49">
         <v>0</v>
-      </c>
-      <c r="AZ49">
-        <v>48</v>
-      </c>
-      <c r="BA49">
-        <f t="shared" si="0"/>
-        <v>606</v>
-      </c>
-    </row>
-    <row r="50" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="AZ50">
-        <f>AZ2</f>
-        <v>10</v>
-      </c>
-      <c r="BA50">
-        <f>SUM(BA2:BA49)</f>
-        <v>18724</v>
       </c>
     </row>
   </sheetData>
@@ -8301,118 +7943,118 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487238E0-FC0B-4547-8AC0-EF1063920398}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="Z3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="31" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:36" s="5" customFormat="1">
+      <c r="A2" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="B2" s="4">
         <v>10870</v>
@@ -8506,7 +8148,7 @@
       </c>
       <c r="AH2" s="3"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36">
       <c r="B3" s="6">
         <v>42</v>
       </c>
@@ -8598,7 +8240,7 @@
         <v>41</v>
       </c>
       <c r="AG3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AH3" s="10">
         <f>MIN(B2:AE2)</f>
@@ -8610,7 +8252,7 @@
       </c>
       <c r="AJ3" s="1"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36">
       <c r="B4" s="8">
         <v>24</v>
       </c>
@@ -8702,7 +8344,7 @@
         <v>29</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AH4" s="11">
         <f>MAX(B2:AE2)</f>
@@ -8714,7 +8356,7 @@
       </c>
       <c r="AJ4" s="1"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36">
       <c r="B5" s="8">
         <v>32</v>
       </c>
@@ -8806,7 +8448,7 @@
         <v>34</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH5" s="11">
         <f>AVERAGE(B2:AE2)</f>
@@ -8814,7 +8456,7 @@
       </c>
       <c r="AJ5" s="1"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36">
       <c r="B6" s="8">
         <v>21</v>
       </c>
@@ -8907,7 +8549,7 @@
       </c>
       <c r="AJ6" s="1"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36">
       <c r="B7" s="8">
         <v>13</v>
       </c>
@@ -9000,7 +8642,7 @@
       </c>
       <c r="AJ7" s="1"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36">
       <c r="B8" s="8">
         <v>47</v>
       </c>
@@ -9093,7 +8735,7 @@
       </c>
       <c r="AJ8" s="1"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36">
       <c r="B9" s="8">
         <v>20</v>
       </c>
@@ -9186,7 +8828,7 @@
       </c>
       <c r="AJ9" s="1"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36">
       <c r="B10" s="8">
         <v>33</v>
       </c>
@@ -9279,7 +8921,7 @@
       </c>
       <c r="AJ10" s="1"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36">
       <c r="B11" s="8">
         <v>46</v>
       </c>
@@ -9372,7 +9014,7 @@
       </c>
       <c r="AJ11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36">
       <c r="B12" s="8">
         <v>36</v>
       </c>
@@ -9465,7 +9107,7 @@
       </c>
       <c r="AJ12" s="1"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36">
       <c r="B13" s="8">
         <v>30</v>
       </c>
@@ -9558,7 +9200,7 @@
       </c>
       <c r="AJ13" s="1"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36">
       <c r="B14" s="8">
         <v>43</v>
       </c>
@@ -9651,7 +9293,7 @@
       </c>
       <c r="AJ14" s="1"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36">
       <c r="B15" s="8">
         <v>17</v>
       </c>
@@ -9744,7 +9386,7 @@
       </c>
       <c r="AJ15" s="1"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36">
       <c r="B16" s="8">
         <v>27</v>
       </c>
@@ -9837,7 +9479,7 @@
       </c>
       <c r="AJ16" s="1"/>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:36">
       <c r="B17" s="8">
         <v>19</v>
       </c>
@@ -9930,7 +9572,7 @@
       </c>
       <c r="AJ17" s="1"/>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:36">
       <c r="B18" s="8">
         <v>37</v>
       </c>
@@ -10023,7 +9665,7 @@
       </c>
       <c r="AJ18" s="1"/>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:36">
       <c r="B19" s="8">
         <v>6</v>
       </c>
@@ -10116,7 +9758,7 @@
       </c>
       <c r="AJ19" s="1"/>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:36">
       <c r="B20" s="8">
         <v>28</v>
       </c>
@@ -10209,7 +9851,7 @@
       </c>
       <c r="AJ20" s="1"/>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:36">
       <c r="B21" s="8">
         <v>7</v>
       </c>
@@ -10302,7 +9944,7 @@
       </c>
       <c r="AJ21" s="1"/>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:36">
       <c r="B22" s="8">
         <v>18</v>
       </c>
@@ -10395,7 +10037,7 @@
       </c>
       <c r="AJ22" s="1"/>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:36">
       <c r="B23" s="8">
         <v>44</v>
       </c>
@@ -10488,7 +10130,7 @@
       </c>
       <c r="AJ23" s="1"/>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:36">
       <c r="B24" s="8">
         <v>31</v>
       </c>
@@ -10581,7 +10223,7 @@
       </c>
       <c r="AJ24" s="1"/>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:36">
       <c r="B25" s="8">
         <v>38</v>
       </c>
@@ -10674,7 +10316,7 @@
       </c>
       <c r="AJ25" s="1"/>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:36">
       <c r="B26" s="8">
         <v>9</v>
       </c>
@@ -10767,7 +10409,7 @@
       </c>
       <c r="AJ26" s="1"/>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:36">
       <c r="B27" s="8">
         <v>8</v>
       </c>
@@ -10860,7 +10502,7 @@
       </c>
       <c r="AJ27" s="1"/>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:36">
       <c r="B28" s="8">
         <v>1</v>
       </c>
@@ -10953,7 +10595,7 @@
       </c>
       <c r="AJ28" s="1"/>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:36">
       <c r="B29" s="8">
         <v>22</v>
       </c>
@@ -11046,7 +10688,7 @@
       </c>
       <c r="AJ29" s="1"/>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:36">
       <c r="B30" s="8">
         <v>16</v>
       </c>
@@ -11139,7 +10781,7 @@
       </c>
       <c r="AJ30" s="1"/>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:36">
       <c r="B31" s="8">
         <v>41</v>
       </c>
@@ -11232,7 +10874,7 @@
       </c>
       <c r="AJ31" s="1"/>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:36">
       <c r="B32" s="8">
         <v>34</v>
       </c>
@@ -11325,7 +10967,7 @@
       </c>
       <c r="AJ32" s="1"/>
     </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:36">
       <c r="B33" s="8">
         <v>3</v>
       </c>
@@ -11418,7 +11060,7 @@
       </c>
       <c r="AJ33" s="1"/>
     </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:36">
       <c r="B34" s="8">
         <v>40</v>
       </c>
@@ -11511,7 +11153,7 @@
       </c>
       <c r="AJ34" s="1"/>
     </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:36">
       <c r="B35" s="8">
         <v>15</v>
       </c>
@@ -11604,7 +11246,7 @@
       </c>
       <c r="AJ35" s="1"/>
     </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:36">
       <c r="B36" s="8">
         <v>12</v>
       </c>
@@ -11697,7 +11339,7 @@
       </c>
       <c r="AJ36" s="1"/>
     </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:36">
       <c r="B37" s="8">
         <v>11</v>
       </c>
@@ -11790,7 +11432,7 @@
       </c>
       <c r="AJ37" s="1"/>
     </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:36">
       <c r="B38" s="8">
         <v>23</v>
       </c>
@@ -11883,7 +11525,7 @@
       </c>
       <c r="AJ38" s="1"/>
     </row>
-    <row r="39" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:36">
       <c r="B39" s="8">
         <v>14</v>
       </c>
@@ -11976,7 +11618,7 @@
       </c>
       <c r="AJ39" s="1"/>
     </row>
-    <row r="40" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:36">
       <c r="B40" s="8">
         <v>25</v>
       </c>
@@ -12069,7 +11711,7 @@
       </c>
       <c r="AJ40" s="1"/>
     </row>
-    <row r="41" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:36">
       <c r="B41" s="8">
         <v>39</v>
       </c>
@@ -12162,7 +11804,7 @@
       </c>
       <c r="AJ41" s="1"/>
     </row>
-    <row r="42" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:36">
       <c r="B42" s="8">
         <v>48</v>
       </c>
@@ -12255,7 +11897,7 @@
       </c>
       <c r="AJ42" s="1"/>
     </row>
-    <row r="43" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:36">
       <c r="B43" s="8">
         <v>5</v>
       </c>
@@ -12348,7 +11990,7 @@
       </c>
       <c r="AJ43" s="1"/>
     </row>
-    <row r="44" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:36">
       <c r="B44" s="8">
         <v>29</v>
       </c>
@@ -12441,7 +12083,7 @@
       </c>
       <c r="AJ44" s="1"/>
     </row>
-    <row r="45" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:36">
       <c r="B45" s="8">
         <v>2</v>
       </c>
@@ -12534,7 +12176,7 @@
       </c>
       <c r="AJ45" s="1"/>
     </row>
-    <row r="46" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:36">
       <c r="B46" s="8">
         <v>26</v>
       </c>
@@ -12627,7 +12269,7 @@
       </c>
       <c r="AJ46" s="1"/>
     </row>
-    <row r="47" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:36">
       <c r="B47" s="8">
         <v>4</v>
       </c>
@@ -12720,7 +12362,7 @@
       </c>
       <c r="AJ47" s="1"/>
     </row>
-    <row r="48" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:36">
       <c r="B48" s="8">
         <v>35</v>
       </c>
@@ -12813,7 +12455,7 @@
       </c>
       <c r="AJ48" s="1"/>
     </row>
-    <row r="49" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:36">
       <c r="B49" s="8">
         <v>45</v>
       </c>
@@ -12906,7 +12548,7 @@
       </c>
       <c r="AJ49" s="1"/>
     </row>
-    <row r="50" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:36">
       <c r="B50" s="8">
         <v>10</v>
       </c>
@@ -12999,7 +12641,7 @@
       </c>
       <c r="AJ50" s="1"/>
     </row>
-    <row r="51" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:36">
       <c r="B51" s="8">
         <v>42</v>
       </c>
@@ -13092,7 +12734,7 @@
       </c>
       <c r="AJ51" s="1"/>
     </row>
-    <row r="52" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:36">
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -13125,7 +12767,7 @@
       <c r="AE52" s="13"/>
       <c r="AJ52" s="1"/>
     </row>
-    <row r="53" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:36">
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -13158,7 +12800,7 @@
       <c r="AE53" s="12"/>
       <c r="AJ53" s="1"/>
     </row>
-    <row r="54" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:36">
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -13191,7 +12833,7 @@
       <c r="AE54" s="12"/>
       <c r="AJ54" s="1"/>
     </row>
-    <row r="55" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:36">
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -13224,7 +12866,7 @@
       <c r="AE55" s="12"/>
       <c r="AJ55" s="1"/>
     </row>
-    <row r="56" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:36">
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -13257,7 +12899,7 @@
       <c r="AE56" s="12"/>
       <c r="AJ56" s="1"/>
     </row>
-    <row r="57" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:36">
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -13290,7 +12932,7 @@
       <c r="AE57" s="12"/>
       <c r="AJ57" s="1"/>
     </row>
-    <row r="58" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:36">
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -13323,7 +12965,7 @@
       <c r="AE58" s="12"/>
       <c r="AJ58" s="1"/>
     </row>
-    <row r="59" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:36">
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -13356,7 +12998,7 @@
       <c r="AE59" s="12"/>
       <c r="AJ59" s="1"/>
     </row>
-    <row r="60" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:36">
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -13389,7 +13031,7 @@
       <c r="AE60" s="12"/>
       <c r="AJ60" s="1"/>
     </row>
-    <row r="61" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:36">
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
@@ -13422,7 +13064,7 @@
       <c r="AE61" s="12"/>
       <c r="AJ61" s="1"/>
     </row>
-    <row r="62" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:36">
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
@@ -13455,7 +13097,7 @@
       <c r="AE62" s="12"/>
       <c r="AJ62" s="1"/>
     </row>
-    <row r="63" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:36">
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
@@ -13488,7 +13130,7 @@
       <c r="AE63" s="12"/>
       <c r="AJ63" s="1"/>
     </row>
-    <row r="64" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:36">
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -13521,7 +13163,7 @@
       <c r="AE64" s="12"/>
       <c r="AJ64" s="1"/>
     </row>
-    <row r="65" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:36">
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -13554,7 +13196,7 @@
       <c r="AE65" s="12"/>
       <c r="AJ65" s="1"/>
     </row>
-    <row r="66" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:36">
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -13587,7 +13229,7 @@
       <c r="AE66" s="12"/>
       <c r="AJ66" s="1"/>
     </row>
-    <row r="67" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:36">
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -13620,7 +13262,7 @@
       <c r="AE67" s="12"/>
       <c r="AJ67" s="1"/>
     </row>
-    <row r="68" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:36">
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -13653,7 +13295,7 @@
       <c r="AE68" s="12"/>
       <c r="AJ68" s="1"/>
     </row>
-    <row r="69" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:36">
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -13686,7 +13328,7 @@
       <c r="AE69" s="12"/>
       <c r="AJ69" s="1"/>
     </row>
-    <row r="70" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:36">
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
@@ -13719,7 +13361,7 @@
       <c r="AE70" s="12"/>
       <c r="AJ70" s="1"/>
     </row>
-    <row r="71" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:36">
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -13752,7 +13394,7 @@
       <c r="AE71" s="12"/>
       <c r="AJ71" s="1"/>
     </row>
-    <row r="72" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:36">
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
@@ -13785,7 +13427,7 @@
       <c r="AE72" s="12"/>
       <c r="AJ72" s="1"/>
     </row>
-    <row r="73" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:36">
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
@@ -13818,7 +13460,7 @@
       <c r="AE73" s="12"/>
       <c r="AJ73" s="1"/>
     </row>
-    <row r="74" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:36">
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
@@ -13851,7 +13493,7 @@
       <c r="AE74" s="12"/>
       <c r="AJ74" s="1"/>
     </row>
-    <row r="75" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:36">
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
@@ -13884,7 +13526,7 @@
       <c r="AE75" s="12"/>
       <c r="AJ75" s="1"/>
     </row>
-    <row r="76" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:36">
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
@@ -13917,7 +13559,7 @@
       <c r="AE76" s="12"/>
       <c r="AJ76" s="1"/>
     </row>
-    <row r="77" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:36">
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
@@ -13950,7 +13592,7 @@
       <c r="AE77" s="12"/>
       <c r="AJ77" s="1"/>
     </row>
-    <row r="78" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:36">
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
@@ -13983,7 +13625,7 @@
       <c r="AE78" s="12"/>
       <c r="AJ78" s="1"/>
     </row>
-    <row r="79" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:36">
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -14022,6 +13664,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101006A925F5E9A5E264AAB9BFB87D6DDBA75" ma:contentTypeVersion="2" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="618daf81d6e163d2462bbba7f13fa102">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c7d67365-c351-4aa4-8210-10bc47b927b5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dabdf1b32e3a97cf46ab78a0656d58dd" ns2:_="">
     <xsd:import namespace="c7d67365-c351-4aa4-8210-10bc47b927b5"/>
@@ -14153,12 +13801,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -14169,6 +13811,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F3A6DA6-C844-4B51-9D31-3A620B65A76C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c7d67365-c351-4aa4-8210-10bc47b927b5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA39AEE5-9124-42E2-B4F6-A9AB16FAB73A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14186,22 +13844,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F3A6DA6-C844-4B51-9D31-3A620B65A76C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c7d67365-c351-4aa4-8210-10bc47b927b5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F012824-A860-4E6F-866B-AF6FDB95199B}">
   <ds:schemaRefs>
